--- a/biology/Zoologie/Gobemouche_pygmée/Gobemouche_pygmée.xlsx
+++ b/biology/Zoologie/Gobemouche_pygmée/Gobemouche_pygmée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_pygm%C3%A9e</t>
+          <t>Gobemouche_pygmée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ficedula hodgsoni
 Le Gobemouche pygmée (Ficedula hodgsoni) est une espèce d'oiseaux de la famille des Muscicapidae. Cet oiseau vit de manière éparse à travers l'Est de l'Himalaya, le Yunnan et l'Asie du Sud-Est.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_pygm%C3%A9e</t>
+          <t>Gobemouche_pygmée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ficedula hodgsoni a été décrite pour la première fois en 1854 par l'entomologiste et ornithologue britannique Frederic Moore[1] (1830–1907) sous le protonyme Nemura hodgsoni[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ficedula hodgsoni a été décrite pour la première fois en 1854 par l'entomologiste et ornithologue britannique Frederic Moore (1830–1907) sous le protonyme Nemura hodgsoni.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobemouche_pygm%C3%A9e</t>
+          <t>Gobemouche_pygmée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans sa description de 1854, l'auteur indique que cet oiseau mesure environ 86 mm.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gobemouche_pygm%C3%A9e</t>
+          <t>Gobemouche_pygmée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Ficedula hodgsoni hodgsoni (Moore, F, 1854)
 sous-espèce Ficedula hodgsoni sondaica (Robinson &amp; Kloss, 1923)</t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gobemouche_pygm%C3%A9e</t>
+          <t>Gobemouche_pygmée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, hodgsoni, lui a été donnée en l'honneur du diplomate et naturaliste anglais Brian Houghton Hodgson (1800-1894) qui a présenté les spécimens étudiés[2]. Son nom vernaculaire fait certainement référence à sa petite taille.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, hodgsoni, lui a été donnée en l'honneur du diplomate et naturaliste anglais Brian Houghton Hodgson (1800-1894) qui a présenté les spécimens étudiés. Son nom vernaculaire fait certainement référence à sa petite taille.
 </t>
         </is>
       </c>
